--- a/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.29280551904881</v>
+        <v>19.12075701903682</v>
       </c>
       <c r="D2" t="n">
         <v>0.006944391349456487</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02111450030030732</v>
+        <v>0.01982943797740053</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3307041589023059</v>
+        <v>34.41294661881737</v>
       </c>
       <c r="G2" t="n">
-        <v>2.188288828778326e-05</v>
+        <v>0.01653725991617913</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9899058325646803</v>
+        <v>105.6611796974577</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002515681892760624</v>
+        <v>0.0004032156549604761</v>
       </c>
       <c r="J2" t="n">
-        <v>4.255999542774192e-09</v>
+        <v>2.651477957110355e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0007545572852911926</v>
+        <v>0.001206095338689192</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006076736874458783</v>
+        <v>0.006376174261821647</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001026448980102428</v>
+        <v>2.988608620412108e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0132262928122396</v>
+        <v>0.01953834335799941</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05063116607513096</v>
+        <v>0.04981522627320694</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0489062734933936</v>
+        <v>0.04815098319456564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05076829414557697</v>
+        <v>0.0499839736740351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04874923079780873</v>
+        <v>0.04777808792960521</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04820028679358263</v>
+        <v>0.04747010325951689</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04973571760080894</v>
+        <v>0.04810047702392242</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04670514331031508</v>
+        <v>0.04618026579441559</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04653409009291036</v>
+        <v>0.04588368811761902</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04695097994368917</v>
+        <v>0.04648968793614636</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04826273269412664</v>
+        <v>0.04781083512558815</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04814767655488127</v>
+        <v>0.04750290028369024</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0483951866097151</v>
+        <v>0.04813319895520735</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19.17057224531003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05509537454402212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06981341165143562</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34.46072470674698</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.06400736317569602</v>
+      </c>
+      <c r="H4" t="n">
+        <v>105.7092801744816</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04658348144937609</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04588395326541474</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04769578327483555</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.05418700938740979</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.04750588889231065</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.06767154231320675</v>
       </c>
     </row>
   </sheetData>

--- a/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.01982943797740053</v>
       </c>
       <c r="F2" t="n">
-        <v>34.81116301226267</v>
+        <v>33.83768468314501</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005085683049765443</v>
+        <v>0.01117150690685271</v>
       </c>
       <c r="H2" t="n">
-        <v>103.6280099865339</v>
+        <v>103.3791977466574</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004022168108829549</v>
+        <v>0.000405949375518209</v>
       </c>
       <c r="J2" t="n">
-        <v>1.458914492601374e-07</v>
+        <v>1.529854878156235e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001198986511291897</v>
+        <v>0.001221913840494738</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006448183117661589</v>
+        <v>0.006277671101953943</v>
       </c>
       <c r="M2" t="n">
-        <v>1.025306463957863e-06</v>
+        <v>2.052328410073348e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01919579067120829</v>
+        <v>0.01914932138598907</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0499839736740351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04777855653343321</v>
+        <v>0.04777680765572575</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04745746943501188</v>
+        <v>0.04744115423198638</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04809168585578006</v>
+        <v>0.04809985782765978</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04618072502051356</v>
+        <v>0.04617902485631615</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04587147661095112</v>
+        <v>0.0458557069314974</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04648116625434852</v>
+        <v>0.04648904698588573</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04781129762414129</v>
+        <v>0.04780954926117981</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04749029211190269</v>
+        <v>0.04747402864087715</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04812443042177708</v>
+        <v>0.04813265109438832</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.06981341165143562</v>
       </c>
       <c r="F4" t="n">
-        <v>34.85894156879611</v>
+        <v>33.88546149080073</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05254315248477732</v>
+        <v>0.0586126611388391</v>
       </c>
       <c r="H4" t="n">
-        <v>103.6761016723897</v>
+        <v>103.427297604485</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04658294183139652</v>
+        <v>0.04658497423183437</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04587162250240038</v>
+        <v>0.04585585991698522</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04768015276564042</v>
+        <v>0.04771096082638047</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05425948074180288</v>
+        <v>0.05408722036313375</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04749131741836665</v>
+        <v>0.04747608096928723</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06732022109298537</v>
+        <v>0.0672819724803774</v>
       </c>
     </row>
   </sheetData>
